--- a/Assets/Excel/TaskData_5.xlsx
+++ b/Assets/Excel/TaskData_5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14880" windowHeight="10440"/>
+    <workbookView windowWidth="14265" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="57">
   <si>
     <t>taskId</t>
   </si>
@@ -76,13 +76,13 @@
     <t>目标对象ID</t>
   </si>
   <si>
-    <t>收获雪瓣花</t>
-  </si>
-  <si>
-    <t>生产雪瓣茶</t>
-  </si>
-  <si>
-    <t>出售雪瓣茶</t>
+    <t>收获木灵芽</t>
+  </si>
+  <si>
+    <t>生产木灵茶</t>
+  </si>
+  <si>
+    <t>出售木灵茶</t>
   </si>
   <si>
     <t>提升一号玉砂壶收益</t>
@@ -94,16 +94,16 @@
     <t>建造二号灵茶售卖架</t>
   </si>
   <si>
-    <t>解锁木灵芽新区域</t>
-  </si>
-  <si>
-    <t>收获木灵芽</t>
-  </si>
-  <si>
-    <t>生产木灵茶</t>
-  </si>
-  <si>
-    <t>出售木灵茶</t>
+    <t>解锁晶蕊草新区域</t>
+  </si>
+  <si>
+    <t>收获晶蕊草</t>
+  </si>
+  <si>
+    <t>生产晶蕊茶</t>
+  </si>
+  <si>
+    <t>出售晶蕊茶</t>
   </si>
   <si>
     <t>提升二号玉砂壶收益</t>
@@ -121,40 +121,31 @@
     <t>建造一号灵器售卖架</t>
   </si>
   <si>
-    <t>解锁铁矿石新区域</t>
-  </si>
-  <si>
-    <t>收获铁矿石</t>
-  </si>
-  <si>
-    <t>生产青岩剑</t>
-  </si>
-  <si>
-    <t>出售青岩剑</t>
-  </si>
-  <si>
-    <t>提升三号玉砂壶收益</t>
+    <t>解锁铜矿石新区域</t>
+  </si>
+  <si>
+    <t>收获铜矿石</t>
+  </si>
+  <si>
+    <t>生产铜纹刀</t>
+  </si>
+  <si>
+    <t>出售铜纹刀</t>
+  </si>
+  <si>
+    <t>提升一号炼器炉收益</t>
   </si>
   <si>
     <t>提升一号灵储阁玄采徒攻击力</t>
   </si>
   <si>
-    <t>解锁巨型雪瓣花新区域</t>
-  </si>
-  <si>
     <t>解锁巨型木灵芽新区域</t>
   </si>
   <si>
-    <t>生产木灵芽</t>
-  </si>
-  <si>
-    <t>出售木灵芽</t>
-  </si>
-  <si>
-    <t>解锁巨型铁矿石新区域</t>
-  </si>
-  <si>
-    <t>提升一号炼器炉收益</t>
+    <t>解锁巨型晶蕊草新区域</t>
+  </si>
+  <si>
+    <t>解锁巨型铜矿石新区域</t>
   </si>
   <si>
     <t>提升二号灵储阁玄采徒攻击力</t>
@@ -166,22 +157,22 @@
     <t>建造二号灵器售卖架</t>
   </si>
   <si>
-    <t>解锁银矿石新区域</t>
-  </si>
-  <si>
-    <t>收获银矿石</t>
-  </si>
-  <si>
-    <t>生产银丝刀</t>
-  </si>
-  <si>
-    <t>出售银丝刀</t>
+    <t>解锁紫晶石新区域</t>
+  </si>
+  <si>
+    <t>收获紫晶石</t>
+  </si>
+  <si>
+    <t>生产紫雾剑</t>
+  </si>
+  <si>
+    <t>出售紫雾剑</t>
   </si>
   <si>
     <t>提升二号炼器炉收益</t>
   </si>
   <si>
-    <t>解锁巨型银矿石新区域</t>
+    <t>解锁巨型紫晶石新区域</t>
   </si>
   <si>
     <t>建造三号炼器炉</t>
@@ -190,22 +181,25 @@
     <t>建造三号灵器售卖架</t>
   </si>
   <si>
-    <t>解锁铜矿石新区域</t>
-  </si>
-  <si>
-    <t>收获铜矿石</t>
-  </si>
-  <si>
-    <t>生产铜纹刀</t>
-  </si>
-  <si>
-    <t>出售铜纹刀</t>
+    <t>解锁月晶石新区域</t>
+  </si>
+  <si>
+    <t>收获月晶石</t>
+  </si>
+  <si>
+    <t>生产月心镜</t>
+  </si>
+  <si>
+    <t>出售月心镜</t>
   </si>
   <si>
     <t>提升三号炼器炉收益</t>
   </si>
   <si>
-    <t>获得80万银钱</t>
+    <t>解锁巨型月晶石新区域</t>
+  </si>
+  <si>
+    <t>获得100万银钱</t>
   </si>
 </sst>
 </file>
@@ -218,19 +212,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -703,137 +691,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -843,20 +831,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1169,16 +1148,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="23.375" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
@@ -1258,17 +1237,17 @@
         <v>5</v>
       </c>
       <c r="E4" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="1">
@@ -1278,17 +1257,17 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1">
@@ -1298,10 +1277,10 @@
         <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1318,7 +1297,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1">
         <v>5</v>
@@ -1338,7 +1317,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -1358,7 +1337,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F9" s="1">
         <v>6</v>
@@ -1378,10 +1357,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1391,17 +1370,17 @@
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>10</v>
       </c>
       <c r="D11" s="1">
         <v>5</v>
       </c>
       <c r="E11" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1418,10 +1397,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F12" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1438,10 +1417,10 @@
         <v>4</v>
       </c>
       <c r="E13" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1458,7 +1437,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F14" s="1">
         <v>7</v>
@@ -1478,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F15" s="1">
         <v>3</v>
@@ -1488,7 +1467,7 @@
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="1">
@@ -1498,7 +1477,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -1508,7 +1487,7 @@
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="1">
@@ -1518,17 +1497,17 @@
         <v>4</v>
       </c>
       <c r="E17" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F17" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="1">
@@ -1538,17 +1517,17 @@
         <v>4</v>
       </c>
       <c r="E18" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F18" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="1">
@@ -1558,7 +1537,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1">
         <v>12</v>
@@ -1568,7 +1547,7 @@
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="1">
@@ -1578,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F20" s="1">
         <v>13</v>
@@ -1588,7 +1567,7 @@
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="1">
@@ -1598,17 +1577,17 @@
         <v>7</v>
       </c>
       <c r="E21" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F21" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="1">
@@ -1618,17 +1597,17 @@
         <v>5</v>
       </c>
       <c r="E22" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F22" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="1">
@@ -1638,17 +1617,17 @@
         <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F23" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="1">
@@ -1658,17 +1637,17 @@
         <v>4</v>
       </c>
       <c r="E24" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F24" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="1">
@@ -1678,17 +1657,17 @@
         <v>2</v>
       </c>
       <c r="E25" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F25" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="1">
@@ -1698,7 +1677,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F26" s="1">
         <v>2</v>
@@ -1708,7 +1687,7 @@
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="1">
@@ -1718,7 +1697,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F27" s="1">
         <v>5</v>
@@ -1738,7 +1717,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F28" s="1">
         <v>7</v>
@@ -1748,7 +1727,7 @@
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="1">
@@ -1758,17 +1737,17 @@
         <v>7</v>
       </c>
       <c r="E29" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F29" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="1">
@@ -1778,17 +1757,17 @@
         <v>5</v>
       </c>
       <c r="E30" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F30" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="1">
@@ -1798,17 +1777,17 @@
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F31" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="1">
@@ -1818,17 +1797,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F32" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="1">
@@ -1838,7 +1817,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F33" s="1">
         <v>5</v>
@@ -1848,7 +1827,7 @@
       <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C34" s="1">
@@ -1858,17 +1837,17 @@
         <v>7</v>
       </c>
       <c r="E34" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F34" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="1">
@@ -1878,18 +1857,18 @@
         <v>5</v>
       </c>
       <c r="E35" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F35" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>33</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>38</v>
+      <c r="B36" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C36" s="1">
         <v>30</v>
@@ -1898,18 +1877,18 @@
         <v>1</v>
       </c>
       <c r="E36" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F36" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>39</v>
+      <c r="B37" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C37" s="1">
         <v>30</v>
@@ -1918,17 +1897,17 @@
         <v>4</v>
       </c>
       <c r="E37" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F37" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>35</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="1">
@@ -1938,7 +1917,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F38" s="1">
         <v>7</v>
@@ -1948,7 +1927,7 @@
       <c r="A39" s="1">
         <v>36</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="1">
@@ -1958,17 +1937,17 @@
         <v>2</v>
       </c>
       <c r="E39" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F39" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>37</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="1">
@@ -1978,7 +1957,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F40" s="1">
         <v>5</v>
@@ -1988,7 +1967,7 @@
       <c r="A41" s="1">
         <v>38</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="1">
@@ -1998,17 +1977,17 @@
         <v>5</v>
       </c>
       <c r="E41" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F41" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>39</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C42" s="1">
@@ -2018,17 +1997,17 @@
         <v>5</v>
       </c>
       <c r="E42" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F42" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>40</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C43" s="1">
@@ -2038,7 +2017,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F43" s="1">
         <v>7</v>
@@ -2048,7 +2027,7 @@
       <c r="A44" s="1">
         <v>41</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C44" s="1">
@@ -2058,7 +2037,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F44" s="1">
         <v>2</v>
@@ -2068,8 +2047,8 @@
       <c r="A45" s="1">
         <v>42</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>40</v>
+      <c r="B45" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -2078,17 +2057,17 @@
         <v>7</v>
       </c>
       <c r="E45" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F45" s="1">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>43</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C46" s="1">
@@ -2098,17 +2077,17 @@
         <v>5</v>
       </c>
       <c r="E46" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F46" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>44</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="1">
@@ -2118,17 +2097,17 @@
         <v>1</v>
       </c>
       <c r="E47" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F47" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>45</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C48" s="1">
@@ -2138,18 +2117,18 @@
         <v>4</v>
       </c>
       <c r="E48" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F48" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>46</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>41</v>
+      <c r="B49" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C49" s="1">
         <v>40</v>
@@ -2158,7 +2137,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F49" s="1">
         <v>12</v>
@@ -2168,7 +2147,7 @@
       <c r="A50" s="1">
         <v>47</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C50" s="1">
@@ -2178,7 +2157,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F50" s="1">
         <v>3</v>
@@ -2188,7 +2167,7 @@
       <c r="A51" s="1">
         <v>48</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C51" s="1">
@@ -2198,7 +2177,7 @@
         <v>2</v>
       </c>
       <c r="E51" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
@@ -2208,8 +2187,8 @@
       <c r="A52" s="1">
         <v>49</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>42</v>
+      <c r="B52" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C52" s="1">
         <v>10</v>
@@ -2218,7 +2197,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F52" s="1">
         <v>19</v>
@@ -2228,7 +2207,7 @@
       <c r="A53" s="1">
         <v>50</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C53" s="1">
@@ -2238,7 +2217,7 @@
         <v>2</v>
       </c>
       <c r="E53" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F53" s="1">
         <v>7</v>
@@ -2248,8 +2227,8 @@
       <c r="A54" s="1">
         <v>51</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>41</v>
+      <c r="B54" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C54" s="1">
         <v>50</v>
@@ -2258,7 +2237,7 @@
         <v>2</v>
       </c>
       <c r="E54" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F54" s="1">
         <v>12</v>
@@ -2268,7 +2247,7 @@
       <c r="A55" s="1">
         <v>52</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C55" s="1">
@@ -2278,7 +2257,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F55" s="1">
         <v>5</v>
@@ -2288,8 +2267,8 @@
       <c r="A56" s="1">
         <v>53</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>43</v>
+      <c r="B56" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -2298,7 +2277,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F56" s="1">
         <v>14</v>
@@ -2308,8 +2287,8 @@
       <c r="A57" s="1">
         <v>54</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>44</v>
+      <c r="B57" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -2318,7 +2297,7 @@
         <v>3</v>
       </c>
       <c r="E57" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F57" s="1">
         <v>15</v>
@@ -2328,8 +2307,8 @@
       <c r="A58" s="1">
         <v>55</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>45</v>
+      <c r="B58" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -2338,18 +2317,18 @@
         <v>7</v>
       </c>
       <c r="E58" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F58" s="1">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>56</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>46</v>
+      <c r="B59" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C59" s="1">
         <v>10</v>
@@ -2358,18 +2337,18 @@
         <v>5</v>
       </c>
       <c r="E59" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F59" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>57</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>47</v>
+      <c r="B60" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C60" s="1">
         <v>10</v>
@@ -2378,18 +2357,18 @@
         <v>1</v>
       </c>
       <c r="E60" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F60" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>58</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>48</v>
+      <c r="B61" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C61" s="1">
         <v>10</v>
@@ -2398,18 +2377,18 @@
         <v>4</v>
       </c>
       <c r="E61" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F61" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>59</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>49</v>
+      <c r="B62" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C62" s="1">
         <v>10</v>
@@ -2418,7 +2397,7 @@
         <v>2</v>
       </c>
       <c r="E62" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F62" s="1">
         <v>14</v>
@@ -2428,17 +2407,17 @@
       <c r="A63" s="1">
         <v>60</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" s="6">
+      <c r="B63" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="4">
         <v>20</v>
       </c>
       <c r="D63" s="1">
         <v>2</v>
       </c>
       <c r="E63" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F63" s="1">
         <v>19</v>
@@ -2448,7 +2427,7 @@
       <c r="A64" s="1">
         <v>61</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C64" s="1">
@@ -2458,7 +2437,7 @@
         <v>2</v>
       </c>
       <c r="E64" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F64" s="1">
         <v>2</v>
@@ -2468,7 +2447,7 @@
       <c r="A65" s="1">
         <v>62</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C65" s="1">
@@ -2478,7 +2457,7 @@
         <v>2</v>
       </c>
       <c r="E65" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F65" s="1">
         <v>7</v>
@@ -2488,8 +2467,8 @@
       <c r="A66" s="1">
         <v>63</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>41</v>
+      <c r="B66" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C66" s="1">
         <v>60</v>
@@ -2498,7 +2477,7 @@
         <v>2</v>
       </c>
       <c r="E66" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F66" s="1">
         <v>12</v>
@@ -2508,7 +2487,7 @@
       <c r="A67" s="1">
         <v>64</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C67" s="1">
@@ -2518,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="E67" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F67" s="1">
         <v>3</v>
@@ -2528,7 +2507,7 @@
       <c r="A68" s="1">
         <v>65</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C68" s="1">
@@ -2538,7 +2517,7 @@
         <v>2</v>
       </c>
       <c r="E68" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F68" s="1">
         <v>1</v>
@@ -2548,7 +2527,7 @@
       <c r="A69" s="1">
         <v>66</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C69" s="1">
@@ -2558,7 +2537,7 @@
         <v>2</v>
       </c>
       <c r="E69" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F69" s="1">
         <v>5</v>
@@ -2568,7 +2547,7 @@
       <c r="A70" s="1">
         <v>67</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="1">
@@ -2578,7 +2557,7 @@
         <v>2</v>
       </c>
       <c r="E70" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F70" s="1">
         <v>2</v>
@@ -2588,8 +2567,8 @@
       <c r="A71" s="1">
         <v>68</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>50</v>
+      <c r="B71" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -2598,18 +2577,18 @@
         <v>7</v>
       </c>
       <c r="E71" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F71" s="1">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>69</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>46</v>
+      <c r="B72" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C72" s="1">
         <v>20</v>
@@ -2618,18 +2597,18 @@
         <v>5</v>
       </c>
       <c r="E72" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F72" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>70</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>47</v>
+      <c r="B73" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C73" s="1">
         <v>20</v>
@@ -2638,18 +2617,18 @@
         <v>1</v>
       </c>
       <c r="E73" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F73" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>71</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>48</v>
+      <c r="B74" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C74" s="1">
         <v>20</v>
@@ -2658,17 +2637,17 @@
         <v>4</v>
       </c>
       <c r="E74" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F74" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>72</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C75" s="1">
@@ -2678,7 +2657,7 @@
         <v>2</v>
       </c>
       <c r="E75" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F75" s="1">
         <v>3</v>
@@ -2688,7 +2667,7 @@
       <c r="A76" s="1">
         <v>73</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C76" s="1">
@@ -2698,7 +2677,7 @@
         <v>2</v>
       </c>
       <c r="E76" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F76" s="1">
         <v>1</v>
@@ -2708,8 +2687,8 @@
       <c r="A77" s="1">
         <v>74</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>49</v>
+      <c r="B77" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C77" s="1">
         <v>30</v>
@@ -2718,7 +2697,7 @@
         <v>2</v>
       </c>
       <c r="E77" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F77" s="1">
         <v>14</v>
@@ -2728,8 +2707,8 @@
       <c r="A78" s="1">
         <v>75</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>41</v>
+      <c r="B78" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C78" s="1">
         <v>80</v>
@@ -2738,7 +2717,7 @@
         <v>2</v>
       </c>
       <c r="E78" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F78" s="1">
         <v>12</v>
@@ -2748,7 +2727,7 @@
       <c r="A79" s="1">
         <v>76</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C79" s="1">
@@ -2758,7 +2737,7 @@
         <v>2</v>
       </c>
       <c r="E79" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F79" s="1">
         <v>7</v>
@@ -2768,7 +2747,7 @@
       <c r="A80" s="1">
         <v>77</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C80" s="1">
@@ -2778,7 +2757,7 @@
         <v>2</v>
       </c>
       <c r="E80" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F80" s="1">
         <v>5</v>
@@ -2788,47 +2767,47 @@
       <c r="A81" s="1">
         <v>78</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>42</v>
+      <c r="B81" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C81" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D81" s="1">
         <v>2</v>
       </c>
       <c r="E81" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F81" s="1">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>79</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>33</v>
+      <c r="B82" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C82" s="1">
         <v>30</v>
       </c>
       <c r="D82" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E82" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F82" s="1">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>80</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C83" s="1">
@@ -2838,17 +2817,17 @@
         <v>4</v>
       </c>
       <c r="E83" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F83" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>81</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C84" s="1">
@@ -2858,18 +2837,18 @@
         <v>4</v>
       </c>
       <c r="E84" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F84" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>82</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>48</v>
+      <c r="B85" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C85" s="1">
         <v>30</v>
@@ -2878,27 +2857,27 @@
         <v>4</v>
       </c>
       <c r="E85" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F85" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>83</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>49</v>
+      <c r="B86" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C86" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D86" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E86" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F86" s="1">
         <v>14</v>
@@ -2908,28 +2887,28 @@
       <c r="A87" s="1">
         <v>84</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>51</v>
+      <c r="B87" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C87" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D87" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E87" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F87" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>85</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>52</v>
+      <c r="B88" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -2938,138 +2917,138 @@
         <v>3</v>
       </c>
       <c r="E88" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F88" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>86</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>53</v>
+      <c r="B89" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
       </c>
       <c r="D89" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E89" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F89" s="1">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>87</v>
       </c>
-      <c r="B90" s="5" t="s">
-        <v>54</v>
+      <c r="B90" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C90" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D90" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E90" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F90" s="1">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>88</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>55</v>
+      <c r="B91" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C91" s="1">
         <v>10</v>
       </c>
       <c r="D91" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E91" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F91" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>89</v>
       </c>
-      <c r="B92" s="5" t="s">
-        <v>56</v>
+      <c r="B92" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C92" s="1">
         <v>10</v>
       </c>
       <c r="D92" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E92" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F92" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>90</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>57</v>
+      <c r="B93" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C93" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D93" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E93" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F93" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>91</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>49</v>
+      <c r="B94" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C94" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D94" s="1">
         <v>2</v>
       </c>
       <c r="E94" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F94" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>92</v>
       </c>
-      <c r="B95" s="7" t="s">
-        <v>26</v>
+      <c r="B95" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C95" s="1">
         <v>50</v>
@@ -3078,18 +3057,18 @@
         <v>2</v>
       </c>
       <c r="E95" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F95" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>93</v>
       </c>
-      <c r="B96" s="7" t="s">
-        <v>27</v>
+      <c r="B96" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C96" s="1">
         <v>50</v>
@@ -3098,118 +3077,118 @@
         <v>2</v>
       </c>
       <c r="E96" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F96" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>94</v>
       </c>
-      <c r="B97" s="7" t="s">
-        <v>49</v>
+      <c r="B97" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C97" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D97" s="1">
         <v>2</v>
       </c>
       <c r="E97" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F97" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>95</v>
       </c>
-      <c r="B98" s="7" t="s">
-        <v>25</v>
+      <c r="B98" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C98" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
       </c>
       <c r="E98" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F98" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>96</v>
       </c>
-      <c r="B99" s="7" t="s">
-        <v>41</v>
+      <c r="B99" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C99" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D99" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E99" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F99" s="1">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>97</v>
       </c>
-      <c r="B100" s="7" t="s">
-        <v>42</v>
+      <c r="B100" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C100" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D100" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E100" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F100" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>98</v>
       </c>
-      <c r="B101" s="7" t="s">
-        <v>54</v>
+      <c r="B101" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C101" s="1">
         <v>30</v>
       </c>
       <c r="D101" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E101" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F101" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>99</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>56</v>
+      <c r="B102" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C102" s="1">
         <v>30</v>
@@ -3218,29 +3197,229 @@
         <v>4</v>
       </c>
       <c r="E102" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F102" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>100</v>
       </c>
-      <c r="B103" s="7" t="s">
-        <v>58</v>
+      <c r="B103" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C103" s="1">
-        <v>800000</v>
+        <v>40</v>
       </c>
       <c r="D103" s="1">
+        <v>2</v>
+      </c>
+      <c r="E103" s="1">
+        <v>10</v>
+      </c>
+      <c r="F103" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>101</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C104" s="1">
+        <v>80</v>
+      </c>
+      <c r="D104" s="1">
+        <v>2</v>
+      </c>
+      <c r="E104" s="1">
+        <v>9</v>
+      </c>
+      <c r="F104" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>102</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" s="1">
+        <v>100</v>
+      </c>
+      <c r="D105" s="1">
+        <v>2</v>
+      </c>
+      <c r="E105" s="1">
+        <v>9</v>
+      </c>
+      <c r="F105" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>103</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106" s="1">
+        <v>100</v>
+      </c>
+      <c r="D106" s="1">
+        <v>2</v>
+      </c>
+      <c r="E106" s="1">
+        <v>9</v>
+      </c>
+      <c r="F106" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>104</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" s="1">
+        <v>40</v>
+      </c>
+      <c r="D107" s="1">
+        <v>2</v>
+      </c>
+      <c r="E107" s="1">
+        <v>9</v>
+      </c>
+      <c r="F107" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>105</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C108" s="1">
+        <v>100</v>
+      </c>
+      <c r="D108" s="1">
+        <v>2</v>
+      </c>
+      <c r="E108" s="1">
+        <v>9</v>
+      </c>
+      <c r="F108" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>106</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C109" s="1">
+        <v>60</v>
+      </c>
+      <c r="D109" s="1">
+        <v>2</v>
+      </c>
+      <c r="E109" s="1">
+        <v>9</v>
+      </c>
+      <c r="F109" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>107</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C110" s="1">
+        <v>30</v>
+      </c>
+      <c r="D110" s="1">
+        <v>5</v>
+      </c>
+      <c r="E110" s="1">
+        <v>9</v>
+      </c>
+      <c r="F110" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>108</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C111" s="1">
+        <v>80</v>
+      </c>
+      <c r="D111" s="1">
+        <v>2</v>
+      </c>
+      <c r="E111" s="1">
+        <v>9</v>
+      </c>
+      <c r="F111" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>109</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C112" s="1">
+        <v>30</v>
+      </c>
+      <c r="D112" s="1">
+        <v>4</v>
+      </c>
+      <c r="E112" s="1">
+        <v>9</v>
+      </c>
+      <c r="F112" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>110</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D113" s="1">
         <v>6</v>
       </c>
-      <c r="E103" s="1">
-        <v>8</v>
-      </c>
-      <c r="F103" s="1">
+      <c r="E113" s="1">
+        <v>10</v>
+      </c>
+      <c r="F113" s="1">
         <v>17</v>
       </c>
     </row>
